--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="109">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,247 +40,304 @@
     <t>name</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>crude</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>risk</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>businesses</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>co</t>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
   <si>
     <t>corona</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>hands</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
     <t>shop</t>
   </si>
   <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>time</t>
+    <t>people</t>
+  </si>
+  <si>
+    <t>workers</t>
+  </si>
+  <si>
+    <t>going</t>
   </si>
   <si>
     <t>go</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>workers</t>
-  </si>
-  <si>
-    <t>people</t>
   </si>
   <si>
     <t>food</t>
@@ -641,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q76"/>
+  <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,10 +706,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -710,13 +767,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -728,31 +785,31 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>0.9145299145299145</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="N3">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -760,13 +817,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8333333333333334</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>236</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>236</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -778,31 +835,31 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.8976377952755905</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="N4">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -810,13 +867,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.797945205479452</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C5">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -828,31 +885,31 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.8807339449541285</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="N5">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -860,13 +917,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7647058823529411</v>
+        <v>0.4933333333333333</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -878,31 +935,31 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.8226950354609929</v>
+        <v>0.890625</v>
       </c>
       <c r="L6">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M6">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="N6">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -910,49 +967,49 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5019455252918288</v>
+        <v>0.4922480620155039</v>
       </c>
       <c r="C7">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D7">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.8181818181818182</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L7">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="M7">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="N7">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -960,13 +1017,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4933333333333333</v>
+        <v>0.3896103896103896</v>
       </c>
       <c r="C8">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -978,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8089171974522293</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L8">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="M8">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="N8">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1010,13 +1067,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2080536912751678</v>
+        <v>0.2348993288590604</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1028,31 +1085,31 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.776595744680851</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L9">
-        <v>292</v>
+        <v>69</v>
       </c>
       <c r="M9">
-        <v>299</v>
+        <v>69</v>
       </c>
       <c r="N9">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1060,215 +1117,167 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02827763496143959</v>
+        <v>0.07238605898123325</v>
       </c>
       <c r="C10">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>631</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1512</v>
+        <v>346</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>0.8380281690140845</v>
+      </c>
+      <c r="L10">
+        <v>119</v>
+      </c>
+      <c r="M10">
+        <v>119</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>0.83125</v>
+      </c>
+      <c r="L11">
+        <v>133</v>
+      </c>
+      <c r="M11">
+        <v>133</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K10">
-        <v>0.7631578947368421</v>
-      </c>
-      <c r="L10">
-        <v>174</v>
-      </c>
-      <c r="M10">
-        <v>185</v>
-      </c>
-      <c r="N10">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.02713523131672598</v>
-      </c>
-      <c r="C11">
-        <v>61</v>
-      </c>
-      <c r="D11">
-        <v>920</v>
-      </c>
-      <c r="E11">
-        <v>0.93</v>
-      </c>
-      <c r="F11">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>2187</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11">
-        <v>0.7288135593220338</v>
-      </c>
-      <c r="L11">
-        <v>43</v>
-      </c>
-      <c r="M11">
-        <v>43</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.01463607594936709</v>
-      </c>
-      <c r="C12">
-        <v>37</v>
-      </c>
-      <c r="D12">
-        <v>710</v>
-      </c>
-      <c r="E12">
-        <v>0.95</v>
-      </c>
-      <c r="F12">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>2491</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="K12">
-        <v>0.6875</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L12">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M12">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N12">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K13">
-        <v>0.6830985915492958</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L13">
-        <v>194</v>
+        <v>86</v>
       </c>
       <c r="M13">
-        <v>205</v>
+        <v>86</v>
       </c>
       <c r="N13">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.6676923076923077</v>
+        <v>0.7963446475195822</v>
       </c>
       <c r="L14">
-        <v>217</v>
+        <v>305</v>
       </c>
       <c r="M14">
-        <v>232</v>
+        <v>305</v>
       </c>
       <c r="N14">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>108</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.6521739130434783</v>
+        <v>0.7740585774058577</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="M15">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1280,125 +1289,125 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.6444444444444445</v>
+        <v>0.7553191489361702</v>
       </c>
       <c r="L16">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="M16">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.5862068965517241</v>
+        <v>0.7230769230769231</v>
       </c>
       <c r="L17">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M17">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N17">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.5614035087719298</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="M18">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="N18">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.5588235294117647</v>
+        <v>0.7084745762711865</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="N19">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.5555555555555556</v>
+        <v>0.7029411764705882</v>
       </c>
       <c r="L20">
-        <v>35</v>
+        <v>239</v>
       </c>
       <c r="M20">
-        <v>35</v>
+        <v>239</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1410,177 +1419,177 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.4746835443037974</v>
+        <v>0.6966292134831461</v>
       </c>
       <c r="L21">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="M21">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="N21">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>83</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.474120082815735</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L22">
-        <v>229</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>232</v>
+        <v>31</v>
       </c>
       <c r="N22">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>254</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.4714285714285714</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="L23">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="N23">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>111</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.4491315136476427</v>
+        <v>0.5901639344262295</v>
       </c>
       <c r="L24">
-        <v>181</v>
+        <v>36</v>
       </c>
       <c r="M24">
-        <v>196</v>
+        <v>36</v>
       </c>
       <c r="N24">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>222</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.4285714285714285</v>
+        <v>0.53125</v>
       </c>
       <c r="L25">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="M25">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="N25">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>92</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.4285714285714285</v>
+        <v>0.5274725274725275</v>
       </c>
       <c r="L26">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N26">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.390625</v>
+        <v>0.5175257731958763</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="M27">
-        <v>25</v>
+        <v>252</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1589,24 +1598,24 @@
         <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>39</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.3826086956521739</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L28">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1618,255 +1627,255 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>71</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.3787878787878788</v>
+        <v>0.5093457943925234</v>
       </c>
       <c r="L29">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="M29">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="N29">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O29">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>41</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.3758169934640523</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="L30">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="N30">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>191</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.3714285714285714</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="N31">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="O31">
-        <v>0.09999999999999998</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>44</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32">
+        <v>0.4948453608247423</v>
+      </c>
+      <c r="L32">
         <v>48</v>
       </c>
-      <c r="K32">
-        <v>0.371007371007371</v>
-      </c>
-      <c r="L32">
-        <v>151</v>
-      </c>
       <c r="M32">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="N32">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>256</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.3626373626373626</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L33">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="M33">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.3558282208588957</v>
+        <v>0.4784688995215311</v>
       </c>
       <c r="L34">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="M34">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N34">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>105</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.3378684807256236</v>
+        <v>0.4626865671641791</v>
       </c>
       <c r="L35">
-        <v>298</v>
+        <v>62</v>
       </c>
       <c r="M35">
-        <v>310</v>
+        <v>62</v>
       </c>
       <c r="N35">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>584</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.3368421052631579</v>
+        <v>0.4605263157894737</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N36">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>63</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>0.3275109170305677</v>
+        <v>0.4521739130434783</v>
       </c>
       <c r="L37">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="M37">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="N37">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>154</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>0.3265306122448979</v>
+        <v>0.4310344827586207</v>
       </c>
       <c r="L38">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="M38">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1883,262 +1892,262 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K39">
-        <v>0.321875</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="L39">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="M39">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="N39">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>217</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K40">
-        <v>0.3184713375796178</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L40">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M40">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="N40">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>107</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K41">
-        <v>0.3148148148148148</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="L41">
         <v>34</v>
       </c>
       <c r="M41">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N41">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K42">
-        <v>0.3082114735658043</v>
+        <v>0.4122137404580153</v>
       </c>
       <c r="L42">
-        <v>274</v>
+        <v>54</v>
       </c>
       <c r="M42">
-        <v>286</v>
+        <v>54</v>
       </c>
       <c r="N42">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>615</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K43">
+        <v>0.3917525773195876</v>
+      </c>
+      <c r="L43">
+        <v>38</v>
+      </c>
+      <c r="M43">
+        <v>38</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <v>59</v>
-      </c>
-      <c r="K43">
-        <v>0.3065476190476191</v>
-      </c>
-      <c r="L43">
-        <v>103</v>
-      </c>
-      <c r="M43">
-        <v>116</v>
-      </c>
-      <c r="N43">
-        <v>0.89</v>
-      </c>
-      <c r="O43">
-        <v>0.11</v>
-      </c>
-      <c r="P43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <v>233</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K44">
-        <v>0.296551724137931</v>
+        <v>0.3896103896103896</v>
       </c>
       <c r="L44">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="M44">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="N44">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>102</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K45">
+        <v>0.3836477987421384</v>
+      </c>
+      <c r="L45">
         <v>61</v>
       </c>
-      <c r="K45">
-        <v>0.2892857142857143</v>
-      </c>
-      <c r="L45">
-        <v>162</v>
-      </c>
       <c r="M45">
-        <v>169</v>
+        <v>61</v>
       </c>
       <c r="N45">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>398</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K46">
-        <v>0.2888888888888889</v>
+        <v>0.3759398496240601</v>
       </c>
       <c r="L46">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="M46">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N46">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="K47">
-        <v>0.2820091923834537</v>
+        <v>0.3738317757009346</v>
       </c>
       <c r="L47">
-        <v>859</v>
+        <v>80</v>
       </c>
       <c r="M47">
-        <v>920</v>
+        <v>81</v>
       </c>
       <c r="N47">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="O47">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>2187</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="K48">
-        <v>0.2796569795140543</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="L48">
-        <v>587</v>
+        <v>54</v>
       </c>
       <c r="M48">
-        <v>631</v>
+        <v>54</v>
       </c>
       <c r="N48">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>1512</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2146,25 +2155,25 @@
         <v>63</v>
       </c>
       <c r="K49">
-        <v>0.2769953051643192</v>
+        <v>0.3640350877192983</v>
       </c>
       <c r="L49">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="M49">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="N49">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O49">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2172,25 +2181,25 @@
         <v>64</v>
       </c>
       <c r="K50">
-        <v>0.2689393939393939</v>
+        <v>0.3605769230769231</v>
       </c>
       <c r="L50">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="M50">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="N50">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>193</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2198,13 +2207,13 @@
         <v>65</v>
       </c>
       <c r="K51">
-        <v>0.2587412587412588</v>
+        <v>0.3581661891117479</v>
       </c>
       <c r="L51">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="M51">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2216,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>106</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2224,13 +2233,13 @@
         <v>66</v>
       </c>
       <c r="K52">
-        <v>0.2586206896551724</v>
+        <v>0.3565891472868217</v>
       </c>
       <c r="L52">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="M52">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2242,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2250,25 +2259,25 @@
         <v>67</v>
       </c>
       <c r="K53">
-        <v>0.2580645161290323</v>
+        <v>0.3544303797468354</v>
       </c>
       <c r="L53">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M53">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N53">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>92</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2276,25 +2285,25 @@
         <v>68</v>
       </c>
       <c r="K54">
-        <v>0.2575757575757576</v>
+        <v>0.3539823008849557</v>
       </c>
       <c r="L54">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M54">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N54">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2302,25 +2311,25 @@
         <v>69</v>
       </c>
       <c r="K55">
-        <v>0.2558502340093604</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L55">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="M55">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="N55">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>477</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2328,25 +2337,25 @@
         <v>70</v>
       </c>
       <c r="K56">
-        <v>0.2522522522522522</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L56">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M56">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N56">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>83</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2354,13 +2363,13 @@
         <v>71</v>
       </c>
       <c r="K57">
-        <v>0.25</v>
+        <v>0.3423423423423423</v>
       </c>
       <c r="L57">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M57">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N57">
         <v>0.97</v>
@@ -2372,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2380,25 +2389,25 @@
         <v>72</v>
       </c>
       <c r="K58">
-        <v>0.246031746031746</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L58">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="M58">
-        <v>33</v>
+        <v>298</v>
       </c>
       <c r="N58">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>95</v>
+        <v>596</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2406,25 +2415,25 @@
         <v>73</v>
       </c>
       <c r="K59">
-        <v>0.2362204724409449</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="L59">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M59">
         <v>32</v>
       </c>
       <c r="N59">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>97</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2432,25 +2441,25 @@
         <v>74</v>
       </c>
       <c r="K60">
-        <v>0.2338709677419355</v>
+        <v>0.3248053392658509</v>
       </c>
       <c r="L60">
-        <v>29</v>
+        <v>292</v>
       </c>
       <c r="M60">
-        <v>29</v>
+        <v>294</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>95</v>
+        <v>607</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2458,65 +2467,65 @@
         <v>75</v>
       </c>
       <c r="K61">
-        <v>0.2245614035087719</v>
+        <v>0.3211009174311927</v>
       </c>
       <c r="L61">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="M61">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="N61">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>663</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="K62">
-        <v>0.2127054361567636</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="L62">
-        <v>673</v>
+        <v>32</v>
       </c>
       <c r="M62">
-        <v>710</v>
+        <v>32</v>
       </c>
       <c r="N62">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>2491</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K63">
-        <v>0.2100840336134454</v>
+        <v>0.3125</v>
       </c>
       <c r="L63">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M63">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2528,177 +2537,177 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K64">
-        <v>0.1967213114754098</v>
+        <v>0.2996941896024465</v>
       </c>
       <c r="L64">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="M64">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="N64">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>147</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K65">
-        <v>0.1928251121076233</v>
+        <v>0.2983870967741936</v>
       </c>
       <c r="L65">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M65">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N65">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>180</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K66">
-        <v>0.1914893617021277</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L66">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="M66">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="N66">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>190</v>
+        <v>399</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K67">
-        <v>0.1851851851851852</v>
+        <v>0.2958801498127341</v>
       </c>
       <c r="L67">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="M67">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="N67">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>132</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K68">
-        <v>0.1764705882352941</v>
+        <v>0.2946428571428572</v>
       </c>
       <c r="L68">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M68">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N68">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>140</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K69">
-        <v>0.158273381294964</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="L69">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M69">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N69">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>234</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K70">
-        <v>0.1277777777777778</v>
+        <v>0.2869198312236287</v>
       </c>
       <c r="L70">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="M70">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2710,163 +2719,631 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>314</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K71">
-        <v>0.1240242844752819</v>
+        <v>0.2867132867132867</v>
       </c>
       <c r="L71">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="M71">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="N71">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>1010</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K72">
-        <v>0.1213114754098361</v>
+        <v>0.2860824742268041</v>
       </c>
       <c r="L72">
-        <v>37</v>
+        <v>888</v>
       </c>
       <c r="M72">
-        <v>38</v>
+        <v>891</v>
       </c>
       <c r="N72">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>268</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K73">
+        <v>0.2773109243697479</v>
+      </c>
+      <c r="L73">
+        <v>33</v>
+      </c>
+      <c r="M73">
+        <v>33</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73">
         <v>86</v>
-      </c>
-      <c r="K73">
-        <v>0.1194690265486726</v>
-      </c>
-      <c r="L73">
-        <v>27</v>
-      </c>
-      <c r="M73">
-        <v>28</v>
-      </c>
-      <c r="N73">
-        <v>0.96</v>
-      </c>
-      <c r="O73">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P73" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q73">
-        <v>199</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K74">
-        <v>0.117056856187291</v>
+        <v>0.2743362831858407</v>
       </c>
       <c r="L74">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M74">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N74">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>264</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K75">
-        <v>0.1119402985074627</v>
+        <v>0.2734484367708819</v>
       </c>
       <c r="L75">
-        <v>60</v>
+        <v>586</v>
       </c>
       <c r="M75">
-        <v>69</v>
+        <v>586</v>
       </c>
       <c r="N75">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>476</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K76">
-        <v>0.06171548117154812</v>
+        <v>0.2700729927007299</v>
       </c>
       <c r="L76">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="M76">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="N76">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>897</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K77">
+        <v>0.2598425196850394</v>
+      </c>
+      <c r="L77">
+        <v>33</v>
+      </c>
+      <c r="M77">
+        <v>33</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K78">
+        <v>0.2592592592592592</v>
+      </c>
+      <c r="L78">
+        <v>168</v>
+      </c>
+      <c r="M78">
+        <v>170</v>
+      </c>
+      <c r="N78">
+        <v>0.99</v>
+      </c>
+      <c r="O78">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K79">
+        <v>0.2439306358381503</v>
+      </c>
+      <c r="L79">
+        <v>211</v>
+      </c>
+      <c r="M79">
+        <v>213</v>
+      </c>
+      <c r="N79">
+        <v>0.99</v>
+      </c>
+      <c r="O79">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K80">
+        <v>0.2318840579710145</v>
+      </c>
+      <c r="L80">
+        <v>32</v>
+      </c>
+      <c r="M80">
+        <v>32</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K81">
+        <v>0.2170818505338078</v>
+      </c>
+      <c r="L81">
+        <v>61</v>
+      </c>
+      <c r="M81">
+        <v>61</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K82">
+        <v>0.2058823529411765</v>
+      </c>
+      <c r="L82">
+        <v>658</v>
+      </c>
+      <c r="M82">
+        <v>663</v>
+      </c>
+      <c r="N82">
+        <v>0.99</v>
+      </c>
+      <c r="O82">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K83">
+        <v>0.1945945945945946</v>
+      </c>
+      <c r="L83">
+        <v>36</v>
+      </c>
+      <c r="M83">
+        <v>36</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K84">
+        <v>0.1830065359477124</v>
+      </c>
+      <c r="L84">
+        <v>56</v>
+      </c>
+      <c r="M84">
+        <v>56</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K85">
+        <v>0.1811594202898551</v>
+      </c>
+      <c r="L85">
+        <v>25</v>
+      </c>
+      <c r="M85">
+        <v>25</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K86">
+        <v>0.1674008810572687</v>
+      </c>
+      <c r="L86">
+        <v>38</v>
+      </c>
+      <c r="M86">
+        <v>38</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K87">
+        <v>0.1561691113028473</v>
+      </c>
+      <c r="L87">
+        <v>181</v>
+      </c>
+      <c r="M87">
+        <v>183</v>
+      </c>
+      <c r="N87">
+        <v>0.99</v>
+      </c>
+      <c r="O87">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K88">
+        <v>0.1511627906976744</v>
+      </c>
+      <c r="L88">
+        <v>26</v>
+      </c>
+      <c r="M88">
+        <v>26</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K89">
+        <v>0.1511111111111111</v>
+      </c>
+      <c r="L89">
+        <v>34</v>
+      </c>
+      <c r="M89">
+        <v>34</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K90">
+        <v>0.1470588235294118</v>
+      </c>
+      <c r="L90">
+        <v>80</v>
+      </c>
+      <c r="M90">
+        <v>81</v>
+      </c>
+      <c r="N90">
+        <v>0.99</v>
+      </c>
+      <c r="O90">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
+      <c r="J91" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K91">
+        <v>0.1366666666666667</v>
+      </c>
+      <c r="L91">
+        <v>41</v>
+      </c>
+      <c r="M91">
+        <v>41</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K92">
+        <v>0.1228070175438596</v>
+      </c>
+      <c r="L92">
+        <v>28</v>
+      </c>
+      <c r="M92">
+        <v>30</v>
+      </c>
+      <c r="N92">
+        <v>0.93</v>
+      </c>
+      <c r="O92">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P92" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17">
+      <c r="J93" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K93">
+        <v>0.1027777777777778</v>
+      </c>
+      <c r="L93">
+        <v>37</v>
+      </c>
+      <c r="M93">
+        <v>37</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="94" spans="10:17">
+      <c r="J94" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K94">
+        <v>0.03830227743271222</v>
+      </c>
+      <c r="L94">
+        <v>37</v>
+      </c>
+      <c r="M94">
+        <v>39</v>
+      </c>
+      <c r="N94">
+        <v>0.95</v>
+      </c>
+      <c r="O94">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P94" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>929</v>
       </c>
     </row>
   </sheetData>
